--- a/doc/6.Worker的原理剖析.xlsx
+++ b/doc/6.Worker的原理剖析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1689,6 +1689,252 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10467975" y="1457325"/>
+          <a:ext cx="6467475" cy="4305300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>每个 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Worker </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>上存在一个或者多个 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ExecutorBackend </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>进程。每个进程包含一个 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Executor </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>对象，该对象持有一个线程池，每个线程可以执行一个 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>task</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>每个 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>application </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>包含一个 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>driver </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>和多个 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>executors</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，每个 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>executor </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>里面运行的 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>tasks </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>都属于同一个 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>application</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>在 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Standalone </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>版本中，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ExecutorBackend </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>被实例化成 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>CoarseGrainedExecutorBackend </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>进程。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Worker </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>通过持有 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ExecutorRunner </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>对象来控制 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CoarseGrainedExecutorBackend </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的启停</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1700,7 +1946,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
